--- a/data/kont.xlsx
+++ b/data/kont.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\БТМ 2023-2024\Проверка контрагентов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD93EF5-BB76-47AA-A46A-BE3F0147E350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDBAC46-EBCC-470F-A80F-8BFA76439C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B9EC0B1-67B2-434B-B0A8-BCB9966F9457}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="771">
   <si>
     <t>Контрагенты</t>
   </si>
@@ -2276,6 +2276,63 @@
   </si>
   <si>
     <t>Яндекс Маркет ООО</t>
+  </si>
+  <si>
+    <t>613502158208</t>
+  </si>
+  <si>
+    <t>561209889314</t>
+  </si>
+  <si>
+    <t>744845216138</t>
+  </si>
+  <si>
+    <t>780600776243</t>
+  </si>
+  <si>
+    <t>745304393565</t>
+  </si>
+  <si>
+    <t>740414960909</t>
+  </si>
+  <si>
+    <t>740402520773</t>
+  </si>
+  <si>
+    <t>561014330740</t>
+  </si>
+  <si>
+    <t>772022188890</t>
+  </si>
+  <si>
+    <t>165121822301</t>
+  </si>
+  <si>
+    <t>781603376365</t>
+  </si>
+  <si>
+    <t>661701717173</t>
+  </si>
+  <si>
+    <t>470102859492</t>
+  </si>
+  <si>
+    <t>234606498820</t>
+  </si>
+  <si>
+    <t>165046626425</t>
+  </si>
+  <si>
+    <t>744712683609</t>
+  </si>
+  <si>
+    <t>772481056096</t>
+  </si>
+  <si>
+    <t>663105356220</t>
+  </si>
+  <si>
+    <t>661903219304</t>
   </si>
 </sst>
 </file>
@@ -2864,18 +2921,18 @@
   </sheetPr>
   <dimension ref="A1:C754"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A735" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B754" sqref="B754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="93.140625" customWidth="1"/>
+    <col min="2" max="2" width="27" style="14" customWidth="1"/>
     <col min="3" max="3" width="16" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2886,7 +2943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2897,7 +2954,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2908,7 +2965,7 @@
         <v>26401001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2919,7 +2976,7 @@
         <v>26401001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2930,7 +2987,7 @@
         <v>772501001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2941,7 +2998,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2952,7 +3009,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2963,7 +3020,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2974,7 +3031,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -2983,7 +3040,7 @@
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -2994,7 +3051,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -3005,7 +3062,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -3016,7 +3073,7 @@
         <v>27245001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -3027,7 +3084,7 @@
         <v>25301001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -3038,7 +3095,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -3049,7 +3106,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -3060,7 +3117,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -3071,7 +3128,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -3082,7 +3139,7 @@
         <v>631601001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -3093,7 +3150,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -3104,7 +3161,7 @@
         <v>732801001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -3115,7 +3172,7 @@
         <v>770201001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -3126,7 +3183,7 @@
         <v>771601001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -3137,7 +3194,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -3148,7 +3205,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -3159,7 +3216,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -3170,7 +3227,7 @@
         <v>784201001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -3181,7 +3238,7 @@
         <v>633001001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -3192,7 +3249,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3203,7 +3260,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -3214,7 +3271,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -3225,7 +3282,7 @@
         <v>772501001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -3236,7 +3293,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -3247,7 +3304,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -3256,7 +3313,7 @@
       </c>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -3267,7 +3324,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -3278,7 +3335,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -3289,7 +3346,7 @@
         <v>770901001</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -3300,7 +3357,7 @@
         <v>745101001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -3311,7 +3368,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -3320,7 +3377,7 @@
       </c>
       <c r="C41" s="11"/>
     </row>
-    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -3331,7 +3388,7 @@
         <v>590601001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
@@ -3342,7 +3399,7 @@
         <v>667801001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
@@ -3353,7 +3410,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
@@ -3364,7 +3421,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
@@ -3375,7 +3432,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
@@ -3386,7 +3443,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
@@ -3397,7 +3454,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -3408,7 +3465,7 @@
         <v>20343001</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -3419,7 +3476,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -3430,7 +3487,7 @@
         <v>20443001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
@@ -3439,7 +3496,7 @@
       </c>
       <c r="C52" s="11"/>
     </row>
-    <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -3450,7 +3507,7 @@
         <v>772401001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
@@ -3461,7 +3518,7 @@
         <v>631101001</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -3472,7 +3529,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -3483,7 +3540,7 @@
         <v>646401001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -3492,7 +3549,7 @@
       </c>
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
@@ -3503,7 +3560,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
@@ -3514,7 +3571,7 @@
         <v>27643001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
@@ -3525,7 +3582,7 @@
         <v>783901001</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
@@ -3536,7 +3593,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -3547,7 +3604,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -3558,7 +3615,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -3569,7 +3626,7 @@
         <v>25801001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -3580,7 +3637,7 @@
         <v>25250001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
@@ -3591,7 +3648,7 @@
         <v>22401001</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
@@ -3602,7 +3659,7 @@
         <v>26401001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -3613,7 +3670,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
@@ -3624,7 +3681,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
@@ -3635,7 +3692,7 @@
         <v>27743005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
@@ -3646,7 +3703,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>73</v>
       </c>
@@ -3657,7 +3714,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>73</v>
       </c>
@@ -3668,7 +3725,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>74</v>
       </c>
@@ -3679,7 +3736,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>75</v>
       </c>
@@ -3690,7 +3747,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>76</v>
       </c>
@@ -3701,7 +3758,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>77</v>
       </c>
@@ -3712,7 +3769,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>78</v>
       </c>
@@ -3723,7 +3780,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>79</v>
       </c>
@@ -3734,7 +3791,7 @@
         <v>27743004</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>80</v>
       </c>
@@ -3745,7 +3802,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>81</v>
       </c>
@@ -3756,7 +3813,7 @@
         <v>25250001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>82</v>
       </c>
@@ -3767,7 +3824,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>83</v>
       </c>
@@ -3778,7 +3835,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>84</v>
       </c>
@@ -3789,7 +3846,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>85</v>
       </c>
@@ -3800,7 +3857,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>86</v>
       </c>
@@ -3811,7 +3868,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>87</v>
       </c>
@@ -3822,7 +3879,7 @@
         <v>632001001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>88</v>
       </c>
@@ -3833,7 +3890,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>89</v>
       </c>
@@ -3844,7 +3901,7 @@
         <v>771301001</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>90</v>
       </c>
@@ -3855,7 +3912,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>91</v>
       </c>
@@ -3866,7 +3923,7 @@
         <v>27745001</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>92</v>
       </c>
@@ -3877,7 +3934,7 @@
         <v>632101001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>93</v>
       </c>
@@ -3888,7 +3945,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>94</v>
       </c>
@@ -3897,7 +3954,7 @@
       </c>
       <c r="C94" s="11"/>
     </row>
-    <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>95</v>
       </c>
@@ -3908,7 +3965,7 @@
         <v>26201001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
@@ -3919,7 +3976,7 @@
         <v>744801001</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>97</v>
       </c>
@@ -3930,7 +3987,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>98</v>
       </c>
@@ -3941,7 +3998,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>99</v>
       </c>
@@ -3952,7 +4009,7 @@
         <v>25001001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>100</v>
       </c>
@@ -3963,7 +4020,7 @@
         <v>184001001</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>101</v>
       </c>
@@ -3974,7 +4031,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>102</v>
       </c>
@@ -3985,7 +4042,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>103</v>
       </c>
@@ -3996,7 +4053,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>104</v>
       </c>
@@ -4007,7 +4064,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>105</v>
       </c>
@@ -4018,7 +4075,7 @@
         <v>21443001</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>106</v>
       </c>
@@ -4029,7 +4086,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>107</v>
       </c>
@@ -4040,7 +4097,7 @@
         <v>25301001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>108</v>
       </c>
@@ -4051,7 +4108,7 @@
         <v>26201001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>109</v>
       </c>
@@ -4062,7 +4119,7 @@
         <v>25901001</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>110</v>
       </c>
@@ -4073,7 +4130,7 @@
         <v>26445002</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>111</v>
       </c>
@@ -4084,7 +4141,7 @@
         <v>26201001</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>112</v>
       </c>
@@ -4095,7 +4152,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>113</v>
       </c>
@@ -4106,7 +4163,7 @@
         <v>161601001</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>114</v>
       </c>
@@ -4117,7 +4174,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>115</v>
       </c>
@@ -4128,7 +4185,7 @@
         <v>27743001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>116</v>
       </c>
@@ -4139,7 +4196,7 @@
         <v>785050001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>117</v>
       </c>
@@ -4150,7 +4207,7 @@
         <v>631101001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>118</v>
       </c>
@@ -4161,7 +4218,7 @@
         <v>27745001</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>119</v>
       </c>
@@ -4172,7 +4229,7 @@
         <v>772301001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>120</v>
       </c>
@@ -4181,7 +4238,7 @@
       </c>
       <c r="C120" s="11"/>
     </row>
-    <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>121</v>
       </c>
@@ -4192,7 +4249,7 @@
         <v>645301001</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>122</v>
       </c>
@@ -4203,7 +4260,7 @@
         <v>25501001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>123</v>
       </c>
@@ -4214,7 +4271,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>124</v>
       </c>
@@ -4225,7 +4282,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>125</v>
       </c>
@@ -4234,7 +4291,7 @@
       </c>
       <c r="C125" s="11"/>
     </row>
-    <row r="126" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>126</v>
       </c>
@@ -4245,7 +4302,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>127</v>
       </c>
@@ -4254,7 +4311,7 @@
       </c>
       <c r="C127" s="11"/>
     </row>
-    <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>128</v>
       </c>
@@ -4263,7 +4320,7 @@
       </c>
       <c r="C128" s="11"/>
     </row>
-    <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>129</v>
       </c>
@@ -4274,7 +4331,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>130</v>
       </c>
@@ -4285,7 +4342,7 @@
         <v>770301001</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>131</v>
       </c>
@@ -4296,7 +4353,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>132</v>
       </c>
@@ -4307,7 +4364,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>133</v>
       </c>
@@ -4318,7 +4375,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>134</v>
       </c>
@@ -4329,7 +4386,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>135</v>
       </c>
@@ -4340,7 +4397,7 @@
         <v>631801001</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>136</v>
       </c>
@@ -4351,7 +4408,7 @@
         <v>770501001</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>137</v>
       </c>
@@ -4362,7 +4419,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>138</v>
       </c>
@@ -4373,7 +4430,7 @@
         <v>771401001</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>139</v>
       </c>
@@ -4384,7 +4441,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>140</v>
       </c>
@@ -4395,7 +4452,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>141</v>
       </c>
@@ -4406,7 +4463,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>142</v>
       </c>
@@ -4417,7 +4474,7 @@
         <v>632101001</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>143</v>
       </c>
@@ -4428,7 +4485,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>144</v>
       </c>
@@ -4439,7 +4496,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>145</v>
       </c>
@@ -4450,7 +4507,7 @@
         <v>21901001</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>146</v>
       </c>
@@ -4461,7 +4518,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>147</v>
       </c>
@@ -4472,7 +4529,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>148</v>
       </c>
@@ -4483,7 +4540,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>149</v>
       </c>
@@ -4494,7 +4551,7 @@
         <v>770401001</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>150</v>
       </c>
@@ -4505,7 +4562,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>151</v>
       </c>
@@ -4516,7 +4573,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>152</v>
       </c>
@@ -4527,7 +4584,7 @@
         <v>785050001</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>153</v>
       </c>
@@ -4538,7 +4595,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>154</v>
       </c>
@@ -4549,7 +4606,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>155</v>
       </c>
@@ -4560,7 +4617,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>156</v>
       </c>
@@ -4571,7 +4628,7 @@
         <v>785050001</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>157</v>
       </c>
@@ -4582,7 +4639,7 @@
         <v>631643001</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>158</v>
       </c>
@@ -4593,7 +4650,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>159</v>
       </c>
@@ -4604,7 +4661,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>160</v>
       </c>
@@ -4615,7 +4672,7 @@
         <v>997750001</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>161</v>
       </c>
@@ -4626,7 +4683,7 @@
         <v>27845001</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>162</v>
       </c>
@@ -4637,7 +4694,7 @@
         <v>772501001</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>163</v>
       </c>
@@ -4646,7 +4703,7 @@
       </c>
       <c r="C163" s="11"/>
     </row>
-    <row r="164" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>164</v>
       </c>
@@ -4657,16 +4714,16 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="9">
-        <v>613502158208</v>
+      <c r="B165" s="9" t="s">
+        <v>752</v>
       </c>
       <c r="C165" s="11"/>
     </row>
-    <row r="166" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>166</v>
       </c>
@@ -4677,7 +4734,7 @@
         <v>631801001</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>167</v>
       </c>
@@ -4688,7 +4745,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>168</v>
       </c>
@@ -4697,7 +4754,7 @@
       </c>
       <c r="C168" s="11"/>
     </row>
-    <row r="169" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>169</v>
       </c>
@@ -4708,7 +4765,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>170</v>
       </c>
@@ -4719,7 +4776,7 @@
         <v>25801001</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>171</v>
       </c>
@@ -4730,7 +4787,7 @@
         <v>771001001</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>172</v>
       </c>
@@ -4741,7 +4798,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>173</v>
       </c>
@@ -4752,7 +4809,7 @@
         <v>644901001</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>174</v>
       </c>
@@ -4763,7 +4820,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>175</v>
       </c>
@@ -4774,7 +4831,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>176</v>
       </c>
@@ -4785,7 +4842,7 @@
         <v>774501001</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>177</v>
       </c>
@@ -4796,7 +4853,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>178</v>
       </c>
@@ -4807,7 +4864,7 @@
         <v>362801001</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>179</v>
       </c>
@@ -4816,7 +4873,7 @@
       </c>
       <c r="C179" s="11"/>
     </row>
-    <row r="180" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>180</v>
       </c>
@@ -4827,7 +4884,7 @@
         <v>22443001</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>181</v>
       </c>
@@ -4836,7 +4893,7 @@
       </c>
       <c r="C181" s="11"/>
     </row>
-    <row r="182" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>182</v>
       </c>
@@ -4847,7 +4904,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>183</v>
       </c>
@@ -4856,7 +4913,7 @@
       </c>
       <c r="C183" s="11"/>
     </row>
-    <row r="184" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>184</v>
       </c>
@@ -4867,7 +4924,7 @@
         <v>631201001</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>185</v>
       </c>
@@ -4878,7 +4935,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>186</v>
       </c>
@@ -4889,7 +4946,7 @@
         <v>772501001</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>187</v>
       </c>
@@ -4900,7 +4957,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>188</v>
       </c>
@@ -4911,7 +4968,7 @@
         <v>745201001</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>189</v>
       </c>
@@ -4922,7 +4979,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>190</v>
       </c>
@@ -4933,7 +4990,7 @@
         <v>997750001</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>191</v>
       </c>
@@ -4944,7 +5001,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>192</v>
       </c>
@@ -4955,7 +5012,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>193</v>
       </c>
@@ -4966,7 +5023,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>194</v>
       </c>
@@ -4977,7 +5034,7 @@
         <v>772001001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>195</v>
       </c>
@@ -4988,7 +5045,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>196</v>
       </c>
@@ -4997,7 +5054,7 @@
       </c>
       <c r="C196" s="11"/>
     </row>
-    <row r="197" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>197</v>
       </c>
@@ -5006,16 +5063,16 @@
       </c>
       <c r="C197" s="11"/>
     </row>
-    <row r="198" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B198" s="9">
-        <v>744845216138</v>
+      <c r="B198" s="9" t="s">
+        <v>754</v>
       </c>
       <c r="C198" s="11"/>
     </row>
-    <row r="199" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>199</v>
       </c>
@@ -5024,7 +5081,7 @@
       </c>
       <c r="C199" s="11"/>
     </row>
-    <row r="200" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>200</v>
       </c>
@@ -5033,7 +5090,7 @@
       </c>
       <c r="C200" s="11"/>
     </row>
-    <row r="201" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>201</v>
       </c>
@@ -5042,7 +5099,7 @@
       </c>
       <c r="C201" s="11"/>
     </row>
-    <row r="202" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>202</v>
       </c>
@@ -5051,7 +5108,7 @@
       </c>
       <c r="C202" s="11"/>
     </row>
-    <row r="203" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>203</v>
       </c>
@@ -5060,7 +5117,7 @@
       </c>
       <c r="C203" s="11"/>
     </row>
-    <row r="204" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>204</v>
       </c>
@@ -5069,7 +5126,7 @@
       </c>
       <c r="C204" s="11"/>
     </row>
-    <row r="205" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>205</v>
       </c>
@@ -5078,16 +5135,16 @@
       </c>
       <c r="C205" s="11"/>
     </row>
-    <row r="206" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B206" s="9">
-        <v>561014330740</v>
+      <c r="B206" s="9" t="s">
+        <v>759</v>
       </c>
       <c r="C206" s="11"/>
     </row>
-    <row r="207" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>207</v>
       </c>
@@ -5096,7 +5153,7 @@
       </c>
       <c r="C207" s="11"/>
     </row>
-    <row r="208" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>208</v>
       </c>
@@ -5105,7 +5162,7 @@
       </c>
       <c r="C208" s="11"/>
     </row>
-    <row r="209" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>209</v>
       </c>
@@ -5114,7 +5171,7 @@
       </c>
       <c r="C209" s="11"/>
     </row>
-    <row r="210" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>210</v>
       </c>
@@ -5123,7 +5180,7 @@
       </c>
       <c r="C210" s="11"/>
     </row>
-    <row r="211" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>211</v>
       </c>
@@ -5132,7 +5189,7 @@
       </c>
       <c r="C211" s="11"/>
     </row>
-    <row r="212" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>212</v>
       </c>
@@ -5141,16 +5198,16 @@
       </c>
       <c r="C212" s="11"/>
     </row>
-    <row r="213" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B213" s="9">
-        <v>780600776243</v>
+      <c r="B213" s="9" t="s">
+        <v>755</v>
       </c>
       <c r="C213" s="11"/>
     </row>
-    <row r="214" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>214</v>
       </c>
@@ -5159,7 +5216,7 @@
       </c>
       <c r="C214" s="11"/>
     </row>
-    <row r="215" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>215</v>
       </c>
@@ -5168,7 +5225,7 @@
       </c>
       <c r="C215" s="11"/>
     </row>
-    <row r="216" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>216</v>
       </c>
@@ -5177,7 +5234,7 @@
       </c>
       <c r="C216" s="11"/>
     </row>
-    <row r="217" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>217</v>
       </c>
@@ -5186,7 +5243,7 @@
       </c>
       <c r="C217" s="11"/>
     </row>
-    <row r="218" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>218</v>
       </c>
@@ -5195,7 +5252,7 @@
       </c>
       <c r="C218" s="11"/>
     </row>
-    <row r="219" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>219</v>
       </c>
@@ -5204,7 +5261,7 @@
       </c>
       <c r="C219" s="11"/>
     </row>
-    <row r="220" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>220</v>
       </c>
@@ -5215,7 +5272,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>221</v>
       </c>
@@ -5224,7 +5281,7 @@
       </c>
       <c r="C221" s="11"/>
     </row>
-    <row r="222" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>222</v>
       </c>
@@ -5233,7 +5290,7 @@
       </c>
       <c r="C222" s="11"/>
     </row>
-    <row r="223" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>223</v>
       </c>
@@ -5242,16 +5299,16 @@
       </c>
       <c r="C223" s="11"/>
     </row>
-    <row r="224" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B224" s="9">
-        <v>745304393565</v>
+      <c r="B224" s="9" t="s">
+        <v>756</v>
       </c>
       <c r="C224" s="11"/>
     </row>
-    <row r="225" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>225</v>
       </c>
@@ -5260,7 +5317,7 @@
       </c>
       <c r="C225" s="11"/>
     </row>
-    <row r="226" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>226</v>
       </c>
@@ -5269,7 +5326,7 @@
       </c>
       <c r="C226" s="11"/>
     </row>
-    <row r="227" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>227</v>
       </c>
@@ -5278,7 +5335,7 @@
       </c>
       <c r="C227" s="11"/>
     </row>
-    <row r="228" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>228</v>
       </c>
@@ -5287,7 +5344,7 @@
       </c>
       <c r="C228" s="11"/>
     </row>
-    <row r="229" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>229</v>
       </c>
@@ -5296,7 +5353,7 @@
       </c>
       <c r="C229" s="11"/>
     </row>
-    <row r="230" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>230</v>
       </c>
@@ -5305,7 +5362,7 @@
       </c>
       <c r="C230" s="11"/>
     </row>
-    <row r="231" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>231</v>
       </c>
@@ -5314,7 +5371,7 @@
       </c>
       <c r="C231" s="11"/>
     </row>
-    <row r="232" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>232</v>
       </c>
@@ -5323,7 +5380,7 @@
       </c>
       <c r="C232" s="11"/>
     </row>
-    <row r="233" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>233</v>
       </c>
@@ -5332,7 +5389,7 @@
       </c>
       <c r="C233" s="11"/>
     </row>
-    <row r="234" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>234</v>
       </c>
@@ -5341,7 +5398,7 @@
       </c>
       <c r="C234" s="11"/>
     </row>
-    <row r="235" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>235</v>
       </c>
@@ -5350,7 +5407,7 @@
       </c>
       <c r="C235" s="11"/>
     </row>
-    <row r="236" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>236</v>
       </c>
@@ -5359,7 +5416,7 @@
       </c>
       <c r="C236" s="11"/>
     </row>
-    <row r="237" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>237</v>
       </c>
@@ -5368,7 +5425,7 @@
       </c>
       <c r="C237" s="11"/>
     </row>
-    <row r="238" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>238</v>
       </c>
@@ -5377,16 +5434,16 @@
       </c>
       <c r="C238" s="11"/>
     </row>
-    <row r="239" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B239" s="9">
-        <v>561209889314</v>
+      <c r="B239" s="9" t="s">
+        <v>753</v>
       </c>
       <c r="C239" s="11"/>
     </row>
-    <row r="240" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>240</v>
       </c>
@@ -5395,7 +5452,7 @@
       </c>
       <c r="C240" s="11"/>
     </row>
-    <row r="241" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>241</v>
       </c>
@@ -5404,16 +5461,16 @@
       </c>
       <c r="C241" s="11"/>
     </row>
-    <row r="242" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B242" s="9">
-        <v>772022188890</v>
+      <c r="B242" s="9" t="s">
+        <v>760</v>
       </c>
       <c r="C242" s="11"/>
     </row>
-    <row r="243" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>243</v>
       </c>
@@ -5422,25 +5479,25 @@
       </c>
       <c r="C243" s="11"/>
     </row>
-    <row r="244" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B244" s="9">
-        <v>165121822301</v>
+      <c r="B244" s="9" t="s">
+        <v>761</v>
       </c>
       <c r="C244" s="11"/>
     </row>
-    <row r="245" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B245" s="9">
-        <v>781603376365</v>
+      <c r="B245" s="9" t="s">
+        <v>762</v>
       </c>
       <c r="C245" s="11"/>
     </row>
-    <row r="246" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>246</v>
       </c>
@@ -5449,7 +5506,7 @@
       </c>
       <c r="C246" s="11"/>
     </row>
-    <row r="247" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>247</v>
       </c>
@@ -5458,7 +5515,7 @@
       </c>
       <c r="C247" s="11"/>
     </row>
-    <row r="248" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>248</v>
       </c>
@@ -5467,7 +5524,7 @@
       </c>
       <c r="C248" s="11"/>
     </row>
-    <row r="249" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>249</v>
       </c>
@@ -5476,7 +5533,7 @@
       </c>
       <c r="C249" s="11"/>
     </row>
-    <row r="250" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>250</v>
       </c>
@@ -5485,7 +5542,7 @@
       </c>
       <c r="C250" s="11"/>
     </row>
-    <row r="251" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>251</v>
       </c>
@@ -5494,7 +5551,7 @@
       </c>
       <c r="C251" s="11"/>
     </row>
-    <row r="252" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>252</v>
       </c>
@@ -5503,7 +5560,7 @@
       </c>
       <c r="C252" s="11"/>
     </row>
-    <row r="253" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>253</v>
       </c>
@@ -5512,7 +5569,7 @@
       </c>
       <c r="C253" s="11"/>
     </row>
-    <row r="254" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>254</v>
       </c>
@@ -5521,7 +5578,7 @@
       </c>
       <c r="C254" s="11"/>
     </row>
-    <row r="255" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>255</v>
       </c>
@@ -5530,7 +5587,7 @@
       </c>
       <c r="C255" s="11"/>
     </row>
-    <row r="256" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>256</v>
       </c>
@@ -5539,7 +5596,7 @@
       </c>
       <c r="C256" s="11"/>
     </row>
-    <row r="257" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>257</v>
       </c>
@@ -5548,7 +5605,7 @@
       </c>
       <c r="C257" s="11"/>
     </row>
-    <row r="258" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>258</v>
       </c>
@@ -5557,7 +5614,7 @@
       </c>
       <c r="C258" s="11"/>
     </row>
-    <row r="259" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>259</v>
       </c>
@@ -5566,7 +5623,7 @@
       </c>
       <c r="C259" s="11"/>
     </row>
-    <row r="260" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>260</v>
       </c>
@@ -5575,7 +5632,7 @@
       </c>
       <c r="C260" s="11"/>
     </row>
-    <row r="261" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>261</v>
       </c>
@@ -5584,7 +5641,7 @@
       </c>
       <c r="C261" s="11"/>
     </row>
-    <row r="262" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>262</v>
       </c>
@@ -5593,7 +5650,7 @@
       </c>
       <c r="C262" s="11"/>
     </row>
-    <row r="263" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>263</v>
       </c>
@@ -5602,7 +5659,7 @@
       </c>
       <c r="C263" s="11"/>
     </row>
-    <row r="264" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>264</v>
       </c>
@@ -5611,7 +5668,7 @@
       </c>
       <c r="C264" s="11"/>
     </row>
-    <row r="265" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>265</v>
       </c>
@@ -5620,7 +5677,7 @@
       </c>
       <c r="C265" s="11"/>
     </row>
-    <row r="266" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>266</v>
       </c>
@@ -5629,7 +5686,7 @@
       </c>
       <c r="C266" s="11"/>
     </row>
-    <row r="267" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>267</v>
       </c>
@@ -5638,34 +5695,34 @@
       </c>
       <c r="C267" s="11"/>
     </row>
-    <row r="268" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B268" s="9">
-        <v>661701717173</v>
+      <c r="B268" s="9" t="s">
+        <v>763</v>
       </c>
       <c r="C268" s="11"/>
     </row>
-    <row r="269" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B269" s="9">
-        <v>470102859492</v>
+      <c r="B269" s="9" t="s">
+        <v>764</v>
       </c>
       <c r="C269" s="11"/>
     </row>
-    <row r="270" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B270" s="9">
-        <v>234606498820</v>
+      <c r="B270" s="9" t="s">
+        <v>765</v>
       </c>
       <c r="C270" s="11"/>
     </row>
-    <row r="271" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>271</v>
       </c>
@@ -5674,7 +5731,7 @@
       </c>
       <c r="C271" s="11"/>
     </row>
-    <row r="272" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>272</v>
       </c>
@@ -5683,7 +5740,7 @@
       </c>
       <c r="C272" s="11"/>
     </row>
-    <row r="273" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>273</v>
       </c>
@@ -5692,7 +5749,7 @@
       </c>
       <c r="C273" s="11"/>
     </row>
-    <row r="274" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>274</v>
       </c>
@@ -5701,7 +5758,7 @@
       </c>
       <c r="C274" s="11"/>
     </row>
-    <row r="275" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>275</v>
       </c>
@@ -5710,7 +5767,7 @@
       </c>
       <c r="C275" s="11"/>
     </row>
-    <row r="276" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>276</v>
       </c>
@@ -5719,16 +5776,16 @@
       </c>
       <c r="C276" s="11"/>
     </row>
-    <row r="277" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B277" s="9">
-        <v>165046626425</v>
+      <c r="B277" s="9" t="s">
+        <v>766</v>
       </c>
       <c r="C277" s="11"/>
     </row>
-    <row r="278" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>278</v>
       </c>
@@ -5737,7 +5794,7 @@
       </c>
       <c r="C278" s="11"/>
     </row>
-    <row r="279" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>279</v>
       </c>
@@ -5746,7 +5803,7 @@
       </c>
       <c r="C279" s="11"/>
     </row>
-    <row r="280" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>280</v>
       </c>
@@ -5755,7 +5812,7 @@
       </c>
       <c r="C280" s="11"/>
     </row>
-    <row r="281" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>281</v>
       </c>
@@ -5764,7 +5821,7 @@
       </c>
       <c r="C281" s="11"/>
     </row>
-    <row r="282" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>282</v>
       </c>
@@ -5773,7 +5830,7 @@
       </c>
       <c r="C282" s="11"/>
     </row>
-    <row r="283" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>283</v>
       </c>
@@ -5782,7 +5839,7 @@
       </c>
       <c r="C283" s="11"/>
     </row>
-    <row r="284" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>284</v>
       </c>
@@ -5791,7 +5848,7 @@
       </c>
       <c r="C284" s="11"/>
     </row>
-    <row r="285" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>285</v>
       </c>
@@ -5800,7 +5857,7 @@
       </c>
       <c r="C285" s="11"/>
     </row>
-    <row r="286" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>286</v>
       </c>
@@ -5809,7 +5866,7 @@
       </c>
       <c r="C286" s="11"/>
     </row>
-    <row r="287" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>287</v>
       </c>
@@ -5818,7 +5875,7 @@
       </c>
       <c r="C287" s="11"/>
     </row>
-    <row r="288" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>288</v>
       </c>
@@ -5827,16 +5884,16 @@
       </c>
       <c r="C288" s="11"/>
     </row>
-    <row r="289" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B289" s="9">
-        <v>744712683609</v>
+      <c r="B289" s="9" t="s">
+        <v>767</v>
       </c>
       <c r="C289" s="11"/>
     </row>
-    <row r="290" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>290</v>
       </c>
@@ -5845,7 +5902,7 @@
       </c>
       <c r="C290" s="11"/>
     </row>
-    <row r="291" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>291</v>
       </c>
@@ -5854,7 +5911,7 @@
       </c>
       <c r="C291" s="11"/>
     </row>
-    <row r="292" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>292</v>
       </c>
@@ -5863,7 +5920,7 @@
       </c>
       <c r="C292" s="11"/>
     </row>
-    <row r="293" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>293</v>
       </c>
@@ -5872,7 +5929,7 @@
       </c>
       <c r="C293" s="11"/>
     </row>
-    <row r="294" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>294</v>
       </c>
@@ -5881,7 +5938,7 @@
       </c>
       <c r="C294" s="11"/>
     </row>
-    <row r="295" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>295</v>
       </c>
@@ -5890,7 +5947,7 @@
       </c>
       <c r="C295" s="11"/>
     </row>
-    <row r="296" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>296</v>
       </c>
@@ -5899,7 +5956,7 @@
       </c>
       <c r="C296" s="11"/>
     </row>
-    <row r="297" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>297</v>
       </c>
@@ -5908,7 +5965,7 @@
       </c>
       <c r="C297" s="11"/>
     </row>
-    <row r="298" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>298</v>
       </c>
@@ -5917,7 +5974,7 @@
       </c>
       <c r="C298" s="11"/>
     </row>
-    <row r="299" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>299</v>
       </c>
@@ -5926,7 +5983,7 @@
       </c>
       <c r="C299" s="11"/>
     </row>
-    <row r="300" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>300</v>
       </c>
@@ -5935,7 +5992,7 @@
       </c>
       <c r="C300" s="11"/>
     </row>
-    <row r="301" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>301</v>
       </c>
@@ -5944,7 +6001,7 @@
       </c>
       <c r="C301" s="11"/>
     </row>
-    <row r="302" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>302</v>
       </c>
@@ -5953,7 +6010,7 @@
       </c>
       <c r="C302" s="11"/>
     </row>
-    <row r="303" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>303</v>
       </c>
@@ -5962,7 +6019,7 @@
       </c>
       <c r="C303" s="11"/>
     </row>
-    <row r="304" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>304</v>
       </c>
@@ -5971,7 +6028,7 @@
       </c>
       <c r="C304" s="11"/>
     </row>
-    <row r="305" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>305</v>
       </c>
@@ -5980,7 +6037,7 @@
       </c>
       <c r="C305" s="11"/>
     </row>
-    <row r="306" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>306</v>
       </c>
@@ -5989,7 +6046,7 @@
       </c>
       <c r="C306" s="11"/>
     </row>
-    <row r="307" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>307</v>
       </c>
@@ -5998,7 +6055,7 @@
       </c>
       <c r="C307" s="11"/>
     </row>
-    <row r="308" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>308</v>
       </c>
@@ -6007,7 +6064,7 @@
       </c>
       <c r="C308" s="11"/>
     </row>
-    <row r="309" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>309</v>
       </c>
@@ -6016,16 +6073,16 @@
       </c>
       <c r="C309" s="11"/>
     </row>
-    <row r="310" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B310" s="9">
-        <v>772481056096</v>
+      <c r="B310" s="9" t="s">
+        <v>768</v>
       </c>
       <c r="C310" s="11"/>
     </row>
-    <row r="311" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>311</v>
       </c>
@@ -6034,7 +6091,7 @@
       </c>
       <c r="C311" s="11"/>
     </row>
-    <row r="312" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>312</v>
       </c>
@@ -6043,7 +6100,7 @@
       </c>
       <c r="C312" s="11"/>
     </row>
-    <row r="313" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>313</v>
       </c>
@@ -6052,7 +6109,7 @@
       </c>
       <c r="C313" s="11"/>
     </row>
-    <row r="314" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>314</v>
       </c>
@@ -6061,7 +6118,7 @@
       </c>
       <c r="C314" s="11"/>
     </row>
-    <row r="315" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>315</v>
       </c>
@@ -6070,7 +6127,7 @@
       </c>
       <c r="C315" s="11"/>
     </row>
-    <row r="316" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>316</v>
       </c>
@@ -6079,7 +6136,7 @@
       </c>
       <c r="C316" s="11"/>
     </row>
-    <row r="317" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>317</v>
       </c>
@@ -6088,16 +6145,16 @@
       </c>
       <c r="C317" s="11"/>
     </row>
-    <row r="318" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B318" s="9">
-        <v>663105356220</v>
+      <c r="B318" s="9" t="s">
+        <v>769</v>
       </c>
       <c r="C318" s="11"/>
     </row>
-    <row r="319" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>319</v>
       </c>
@@ -6106,7 +6163,7 @@
       </c>
       <c r="C319" s="11"/>
     </row>
-    <row r="320" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>320</v>
       </c>
@@ -6117,7 +6174,7 @@
         <v>770701001</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>321</v>
       </c>
@@ -6128,7 +6185,7 @@
         <v>772601001</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>322</v>
       </c>
@@ -6139,7 +6196,7 @@
         <v>26001001</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>323</v>
       </c>
@@ -6150,7 +6207,7 @@
         <v>23901001</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>324</v>
       </c>
@@ -6161,7 +6218,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>325</v>
       </c>
@@ -6172,7 +6229,7 @@
         <v>770801001</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>326</v>
       </c>
@@ -6181,7 +6238,7 @@
       </c>
       <c r="C326" s="11"/>
     </row>
-    <row r="327" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>327</v>
       </c>
@@ -6190,7 +6247,7 @@
       </c>
       <c r="C327" s="11"/>
     </row>
-    <row r="328" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>328</v>
       </c>
@@ -6201,7 +6258,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>329</v>
       </c>
@@ -6212,7 +6269,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>330</v>
       </c>
@@ -6223,7 +6280,7 @@
         <v>165001001</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>331</v>
       </c>
@@ -6234,7 +6291,7 @@
         <v>22943001</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>332</v>
       </c>
@@ -6243,7 +6300,7 @@
       </c>
       <c r="C332" s="11"/>
     </row>
-    <row r="333" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>333</v>
       </c>
@@ -6254,7 +6311,7 @@
         <v>667901001</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>334</v>
       </c>
@@ -6265,7 +6322,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>335</v>
       </c>
@@ -6276,7 +6333,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>336</v>
       </c>
@@ -6287,7 +6344,7 @@
         <v>631901001</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>337</v>
       </c>
@@ -6298,7 +6355,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>338</v>
       </c>
@@ -6309,7 +6366,7 @@
         <v>997750000</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>339</v>
       </c>
@@ -6318,7 +6375,7 @@
       </c>
       <c r="C339" s="11"/>
     </row>
-    <row r="340" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>340</v>
       </c>
@@ -6329,7 +6386,7 @@
         <v>667901001</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>341</v>
       </c>
@@ -6340,7 +6397,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>342</v>
       </c>
@@ -6351,7 +6408,7 @@
         <v>165101001</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>343</v>
       </c>
@@ -6362,7 +6419,7 @@
         <v>771701001</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>344</v>
       </c>
@@ -6373,7 +6430,7 @@
         <v>20101001</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>345</v>
       </c>
@@ -6384,7 +6441,7 @@
         <v>246301001</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>346</v>
       </c>
@@ -6395,7 +6452,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>347</v>
       </c>
@@ -6406,7 +6463,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>348</v>
       </c>
@@ -6417,7 +6474,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>349</v>
       </c>
@@ -6428,7 +6485,7 @@
         <v>783901001</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>350</v>
       </c>
@@ -6439,7 +6496,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>351</v>
       </c>
@@ -6450,7 +6507,7 @@
         <v>772901001</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>352</v>
       </c>
@@ -6461,7 +6518,7 @@
         <v>668601001</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>353</v>
       </c>
@@ -6472,7 +6529,7 @@
         <v>502401001</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>354</v>
       </c>
@@ -6483,7 +6540,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>355</v>
       </c>
@@ -6494,7 +6551,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>356</v>
       </c>
@@ -6505,7 +6562,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>357</v>
       </c>
@@ -6516,7 +6573,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>358</v>
       </c>
@@ -6527,7 +6584,7 @@
         <v>25001001</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>359</v>
       </c>
@@ -6538,7 +6595,7 @@
         <v>26201001</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>360</v>
       </c>
@@ -6547,7 +6604,7 @@
       </c>
       <c r="C360" s="11"/>
     </row>
-    <row r="361" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>361</v>
       </c>
@@ -6558,7 +6615,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>362</v>
       </c>
@@ -6569,7 +6626,7 @@
         <v>770201001</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>363</v>
       </c>
@@ -6580,7 +6637,7 @@
         <v>27445001</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>364</v>
       </c>
@@ -6591,7 +6648,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>365</v>
       </c>
@@ -6602,7 +6659,7 @@
         <v>526101001</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>366</v>
       </c>
@@ -6613,7 +6670,7 @@
         <v>760401001</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>367</v>
       </c>
@@ -6624,7 +6681,7 @@
         <v>771701001</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>368</v>
       </c>
@@ -6635,7 +6692,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>369</v>
       </c>
@@ -6646,7 +6703,7 @@
         <v>27702001</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>370</v>
       </c>
@@ -6657,7 +6714,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>371</v>
       </c>
@@ -6668,7 +6725,7 @@
         <v>771801001</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>372</v>
       </c>
@@ -6679,7 +6736,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>373</v>
       </c>
@@ -6690,7 +6747,7 @@
         <v>997650001</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>374</v>
       </c>
@@ -6701,7 +6758,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>375</v>
       </c>
@@ -6712,7 +6769,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>376</v>
       </c>
@@ -6723,7 +6780,7 @@
         <v>770301001</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>377</v>
       </c>
@@ -6734,7 +6791,7 @@
         <v>632401001</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>378</v>
       </c>
@@ -6745,7 +6802,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>379</v>
       </c>
@@ -6756,7 +6813,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>380</v>
       </c>
@@ -6767,7 +6824,7 @@
         <v>27645001</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>381</v>
       </c>
@@ -6778,7 +6835,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>382</v>
       </c>
@@ -6789,7 +6846,7 @@
         <v>667801001</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>383</v>
       </c>
@@ -6800,7 +6857,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>384</v>
       </c>
@@ -6811,7 +6868,7 @@
         <v>773001001</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>385</v>
       </c>
@@ -6822,7 +6879,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>386</v>
       </c>
@@ -6831,7 +6888,7 @@
       </c>
       <c r="C386" s="11"/>
     </row>
-    <row r="387" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>387</v>
       </c>
@@ -6842,7 +6899,7 @@
         <v>631643001</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>388</v>
       </c>
@@ -6853,7 +6910,7 @@
         <v>771901001</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>389</v>
       </c>
@@ -6864,7 +6921,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>390</v>
       </c>
@@ -6875,7 +6932,7 @@
         <v>668601001</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>391</v>
       </c>
@@ -6886,7 +6943,7 @@
         <v>668601001</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>392</v>
       </c>
@@ -6897,7 +6954,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>393</v>
       </c>
@@ -6908,7 +6965,7 @@
         <v>710150001</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>394</v>
       </c>
@@ -6919,7 +6976,7 @@
         <v>26201001</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>395</v>
       </c>
@@ -6930,7 +6987,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>396</v>
       </c>
@@ -6941,7 +6998,7 @@
         <v>667001001</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>397</v>
       </c>
@@ -6950,7 +7007,7 @@
       </c>
       <c r="C397" s="11"/>
     </row>
-    <row r="398" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>398</v>
       </c>
@@ -6961,7 +7018,7 @@
         <v>668601001</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>399</v>
       </c>
@@ -6972,7 +7029,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>400</v>
       </c>
@@ -6981,7 +7038,7 @@
       </c>
       <c r="C400" s="11"/>
     </row>
-    <row r="401" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>401</v>
       </c>
@@ -6992,7 +7049,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>402</v>
       </c>
@@ -7003,7 +7060,7 @@
         <v>631600100</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>403</v>
       </c>
@@ -7014,7 +7071,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
         <v>404</v>
       </c>
@@ -7025,7 +7082,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>405</v>
       </c>
@@ -7036,7 +7093,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>406</v>
       </c>
@@ -7047,7 +7104,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>407</v>
       </c>
@@ -7058,7 +7115,7 @@
         <v>770901001</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
         <v>408</v>
       </c>
@@ -7069,7 +7126,7 @@
         <v>771601001</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>409</v>
       </c>
@@ -7080,7 +7137,7 @@
         <v>27602001</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
         <v>410</v>
       </c>
@@ -7091,7 +7148,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
         <v>411</v>
       </c>
@@ -7102,7 +7159,7 @@
         <v>26201001</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
         <v>412</v>
       </c>
@@ -7113,7 +7170,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>413</v>
       </c>
@@ -7124,7 +7181,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
         <v>414</v>
       </c>
@@ -7135,7 +7192,7 @@
         <v>26401001</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>415</v>
       </c>
@@ -7146,7 +7203,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
         <v>416</v>
       </c>
@@ -7157,7 +7214,7 @@
         <v>26401001</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>417</v>
       </c>
@@ -7166,7 +7223,7 @@
       </c>
       <c r="C417" s="11"/>
     </row>
-    <row r="418" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
         <v>418</v>
       </c>
@@ -7177,7 +7234,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>419</v>
       </c>
@@ -7188,16 +7245,16 @@
         <v>770301001</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B420" s="9">
-        <v>661903219304</v>
+      <c r="B420" s="9" t="s">
+        <v>770</v>
       </c>
       <c r="C420" s="11"/>
     </row>
-    <row r="421" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
         <v>421</v>
       </c>
@@ -7208,7 +7265,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
         <v>422</v>
       </c>
@@ -7219,7 +7276,7 @@
         <v>27743002</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>423</v>
       </c>
@@ -7230,7 +7287,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
         <v>424</v>
       </c>
@@ -7241,7 +7298,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>425</v>
       </c>
@@ -7252,7 +7309,7 @@
         <v>165601001</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
         <v>426</v>
       </c>
@@ -7263,7 +7320,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>427</v>
       </c>
@@ -7274,7 +7331,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
         <v>428</v>
       </c>
@@ -7285,7 +7342,7 @@
         <v>166001001</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
         <v>429</v>
       </c>
@@ -7296,7 +7353,7 @@
         <v>631801001</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
         <v>430</v>
       </c>
@@ -7307,7 +7364,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
         <v>431</v>
       </c>
@@ -7318,7 +7375,7 @@
         <v>633001001</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
         <v>432</v>
       </c>
@@ -7329,7 +7386,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
         <v>433</v>
       </c>
@@ -7340,7 +7397,7 @@
         <v>26201001</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
         <v>434</v>
       </c>
@@ -7351,7 +7408,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>435</v>
       </c>
@@ -7362,7 +7419,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
         <v>436</v>
       </c>
@@ -7373,7 +7430,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
         <v>437</v>
       </c>
@@ -7384,7 +7441,7 @@
         <v>631701001</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
         <v>438</v>
       </c>
@@ -7395,7 +7452,7 @@
         <v>631701001</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
         <v>439</v>
       </c>
@@ -7406,7 +7463,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
         <v>440</v>
       </c>
@@ -7417,7 +7474,7 @@
         <v>631901001</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
         <v>441</v>
       </c>
@@ -7428,7 +7485,7 @@
         <v>701701001</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
         <v>442</v>
       </c>
@@ -7439,7 +7496,7 @@
         <v>631901001</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
         <v>443</v>
       </c>
@@ -7450,7 +7507,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>444</v>
       </c>
@@ -7459,7 +7516,7 @@
       </c>
       <c r="C444" s="11"/>
     </row>
-    <row r="445" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
         <v>445</v>
       </c>
@@ -7470,7 +7527,7 @@
         <v>25045001</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
         <v>446</v>
       </c>
@@ -7481,7 +7538,7 @@
         <v>26201001</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
         <v>447</v>
       </c>
@@ -7492,7 +7549,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
         <v>448</v>
       </c>
@@ -7503,7 +7560,7 @@
         <v>26201001</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>449</v>
       </c>
@@ -7514,7 +7571,7 @@
         <v>780601001</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
         <v>450</v>
       </c>
@@ -7525,7 +7582,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
         <v>451</v>
       </c>
@@ -7536,7 +7593,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
         <v>452</v>
       </c>
@@ -7547,7 +7604,7 @@
         <v>22901001</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
         <v>453</v>
       </c>
@@ -7558,7 +7615,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
         <v>454</v>
       </c>
@@ -7569,7 +7626,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
         <v>455</v>
       </c>
@@ -7580,7 +7637,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
         <v>456</v>
       </c>
@@ -7589,7 +7646,7 @@
       </c>
       <c r="C456" s="11"/>
     </row>
-    <row r="457" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>457</v>
       </c>
@@ -7600,7 +7657,7 @@
         <v>673201001</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
         <v>458</v>
       </c>
@@ -7611,7 +7668,7 @@
         <v>366201001</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
         <v>459</v>
       </c>
@@ -7622,7 +7679,7 @@
         <v>771301001</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
         <v>460</v>
       </c>
@@ -7633,7 +7690,7 @@
         <v>770901001</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
         <v>461</v>
       </c>
@@ -7644,7 +7701,7 @@
         <v>26301001</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
         <v>462</v>
       </c>
@@ -7655,7 +7712,7 @@
         <v>25801001</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
         <v>462</v>
       </c>
@@ -7666,7 +7723,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
         <v>463</v>
       </c>
@@ -7677,7 +7734,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
         <v>464</v>
       </c>
@@ -7688,7 +7745,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
         <v>465</v>
       </c>
@@ -7699,7 +7756,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
         <v>466</v>
       </c>
@@ -7710,7 +7767,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
         <v>467</v>
       </c>
@@ -7721,7 +7778,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
         <v>468</v>
       </c>
@@ -7732,7 +7789,7 @@
         <v>25101001</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
         <v>469</v>
       </c>
@@ -7743,7 +7800,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
         <v>470</v>
       </c>
@@ -7754,7 +7811,7 @@
         <v>592101001</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
         <v>471</v>
       </c>
@@ -7765,7 +7822,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
         <v>472</v>
       </c>
@@ -7774,7 +7831,7 @@
       </c>
       <c r="C473" s="11"/>
     </row>
-    <row r="474" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
         <v>473</v>
       </c>
@@ -7785,7 +7842,7 @@
         <v>27432001</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
         <v>474</v>
       </c>
@@ -7796,7 +7853,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
         <v>475</v>
       </c>
@@ -7807,7 +7864,7 @@
         <v>504101001</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
         <v>476</v>
       </c>
@@ -7818,7 +7875,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
         <v>477</v>
       </c>
@@ -7829,7 +7886,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
         <v>478</v>
       </c>
@@ -7840,7 +7897,7 @@
         <v>772601001</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
         <v>479</v>
       </c>
@@ -7851,7 +7908,7 @@
         <v>631101001</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
         <v>480</v>
       </c>
@@ -7862,7 +7919,7 @@
         <v>645001001</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
         <v>481</v>
       </c>
@@ -7873,7 +7930,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
         <v>482</v>
       </c>
@@ -7884,7 +7941,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
         <v>483</v>
       </c>
@@ -7895,7 +7952,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
         <v>484</v>
       </c>
@@ -7906,7 +7963,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
         <v>485</v>
       </c>
@@ -7917,7 +7974,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
         <v>486</v>
       </c>
@@ -7928,7 +7985,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
         <v>487</v>
       </c>
@@ -7939,7 +7996,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
         <v>488</v>
       </c>
@@ -7950,7 +8007,7 @@
         <v>525601001</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
         <v>489</v>
       </c>
@@ -7961,7 +8018,7 @@
         <v>26801001</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>490</v>
       </c>
@@ -7972,7 +8029,7 @@
         <v>772301001</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
         <v>491</v>
       </c>
@@ -7983,7 +8040,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
         <v>492</v>
       </c>
@@ -7994,7 +8051,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
         <v>493</v>
       </c>
@@ -8003,7 +8060,7 @@
       </c>
       <c r="C494" s="11"/>
     </row>
-    <row r="495" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
         <v>494</v>
       </c>
@@ -8014,7 +8071,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
         <v>495</v>
       </c>
@@ -8025,7 +8082,7 @@
         <v>26801001</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
         <v>496</v>
       </c>
@@ -8036,7 +8093,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
         <v>497</v>
       </c>
@@ -8047,7 +8104,7 @@
         <v>775050001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
         <v>498</v>
       </c>
@@ -8056,7 +8113,7 @@
       </c>
       <c r="C499" s="11"/>
     </row>
-    <row r="500" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
         <v>499</v>
       </c>
@@ -8067,7 +8124,7 @@
         <v>20201001</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
         <v>500</v>
       </c>
@@ -8078,7 +8135,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
         <v>501</v>
       </c>
@@ -8087,7 +8144,7 @@
       </c>
       <c r="C502" s="11"/>
     </row>
-    <row r="503" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
         <v>502</v>
       </c>
@@ -8098,7 +8155,7 @@
         <v>563801001</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
         <v>503</v>
       </c>
@@ -8109,7 +8166,7 @@
         <v>246501001</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
         <v>504</v>
       </c>
@@ -8120,7 +8177,7 @@
         <v>26801001</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
         <v>505</v>
       </c>
@@ -8131,7 +8188,7 @@
         <v>774301001</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
         <v>506</v>
       </c>
@@ -8142,7 +8199,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
         <v>507</v>
       </c>
@@ -8153,7 +8210,7 @@
         <v>668501001</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
         <v>508</v>
       </c>
@@ -8164,7 +8221,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
         <v>509</v>
       </c>
@@ -8175,7 +8232,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
         <v>510</v>
       </c>
@@ -8186,7 +8243,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
         <v>511</v>
       </c>
@@ -8195,7 +8252,7 @@
       </c>
       <c r="C512" s="11"/>
     </row>
-    <row r="513" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
         <v>512</v>
       </c>
@@ -8206,7 +8263,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
         <v>513</v>
       </c>
@@ -8217,7 +8274,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
         <v>514</v>
       </c>
@@ -8228,7 +8285,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
         <v>515</v>
       </c>
@@ -8237,7 +8294,7 @@
       </c>
       <c r="C516" s="11"/>
     </row>
-    <row r="517" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
         <v>516</v>
       </c>
@@ -8246,7 +8303,7 @@
       </c>
       <c r="C517" s="11"/>
     </row>
-    <row r="518" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
         <v>517</v>
       </c>
@@ -8257,7 +8314,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
         <v>518</v>
       </c>
@@ -8266,7 +8323,7 @@
       </c>
       <c r="C519" s="11"/>
     </row>
-    <row r="520" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
         <v>519</v>
       </c>
@@ -8275,7 +8332,7 @@
       </c>
       <c r="C520" s="11"/>
     </row>
-    <row r="521" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
         <v>519</v>
       </c>
@@ -8286,7 +8343,7 @@
         <v>997650001</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
         <v>520</v>
       </c>
@@ -8297,7 +8354,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
         <v>521</v>
       </c>
@@ -8308,7 +8365,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
         <v>522</v>
       </c>
@@ -8319,7 +8376,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
         <v>523</v>
       </c>
@@ -8330,7 +8387,7 @@
         <v>772501001</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
         <v>524</v>
       </c>
@@ -8341,7 +8398,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
         <v>525</v>
       </c>
@@ -8352,7 +8409,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
         <v>526</v>
       </c>
@@ -8363,7 +8420,7 @@
         <v>165701001</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
         <v>527</v>
       </c>
@@ -8374,7 +8431,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
         <v>528</v>
       </c>
@@ -8383,7 +8440,7 @@
       </c>
       <c r="C530" s="11"/>
     </row>
-    <row r="531" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
         <v>529</v>
       </c>
@@ -8394,7 +8451,7 @@
         <v>590201001</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
         <v>530</v>
       </c>
@@ -8405,7 +8462,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
         <v>531</v>
       </c>
@@ -8416,7 +8473,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="s">
         <v>532</v>
       </c>
@@ -8427,7 +8484,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
         <v>533</v>
       </c>
@@ -8438,7 +8495,7 @@
         <v>540701001</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
         <v>534</v>
       </c>
@@ -8449,7 +8506,7 @@
         <v>997750001</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
         <v>535</v>
       </c>
@@ -8460,7 +8517,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
         <v>536</v>
       </c>
@@ -8471,7 +8528,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
         <v>537</v>
       </c>
@@ -8482,7 +8539,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
         <v>538</v>
       </c>
@@ -8493,7 +8550,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
         <v>539</v>
       </c>
@@ -8504,7 +8561,7 @@
         <v>22901001</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
         <v>540</v>
       </c>
@@ -8515,7 +8572,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
         <v>541</v>
       </c>
@@ -8526,7 +8583,7 @@
         <v>784243001</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
         <v>542</v>
       </c>
@@ -8537,7 +8594,7 @@
         <v>631901001</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
         <v>543</v>
       </c>
@@ -8548,7 +8605,7 @@
         <v>631201001</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
         <v>544</v>
       </c>
@@ -8557,7 +8614,7 @@
       </c>
       <c r="C546" s="11"/>
     </row>
-    <row r="547" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
         <v>545</v>
       </c>
@@ -8568,7 +8625,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
         <v>546</v>
       </c>
@@ -8579,7 +8636,7 @@
         <v>631901001</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
         <v>547</v>
       </c>
@@ -8590,7 +8647,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
         <v>548</v>
       </c>
@@ -8601,7 +8658,7 @@
         <v>645201001</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
         <v>549</v>
       </c>
@@ -8612,7 +8669,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
         <v>550</v>
       </c>
@@ -8623,7 +8680,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
         <v>551</v>
       </c>
@@ -8634,7 +8691,7 @@
         <v>770701001</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
         <v>552</v>
       </c>
@@ -8645,7 +8702,7 @@
         <v>631201001</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
         <v>553</v>
       </c>
@@ -8656,7 +8713,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
         <v>554</v>
       </c>
@@ -8667,7 +8724,7 @@
         <v>781301001</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
         <v>555</v>
       </c>
@@ -8678,7 +8735,7 @@
         <v>771701001</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
         <v>556</v>
       </c>
@@ -8689,7 +8746,7 @@
         <v>633001001</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>557</v>
       </c>
@@ -8700,7 +8757,7 @@
         <v>668601001</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A560" s="3" t="s">
         <v>558</v>
       </c>
@@ -8711,7 +8768,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
         <v>559</v>
       </c>
@@ -8722,7 +8779,7 @@
         <v>502401001</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
         <v>560</v>
       </c>
@@ -8733,7 +8790,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
         <v>561</v>
       </c>
@@ -8744,7 +8801,7 @@
         <v>560945001</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A564" s="3" t="s">
         <v>562</v>
       </c>
@@ -8755,7 +8812,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
         <v>563</v>
       </c>
@@ -8766,7 +8823,7 @@
         <v>526101001</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
         <v>564</v>
       </c>
@@ -8777,7 +8834,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
         <v>565</v>
       </c>
@@ -8788,7 +8845,7 @@
         <v>26801001</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
         <v>566</v>
       </c>
@@ -8799,7 +8856,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
         <v>567</v>
       </c>
@@ -8810,7 +8867,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A570" s="3" t="s">
         <v>568</v>
       </c>
@@ -8821,7 +8878,7 @@
         <v>25301001</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
         <v>569</v>
       </c>
@@ -8832,7 +8889,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A572" s="3" t="s">
         <v>570</v>
       </c>
@@ -8843,7 +8900,7 @@
         <v>212401001</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
         <v>571</v>
       </c>
@@ -8854,7 +8911,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A574" s="3" t="s">
         <v>572</v>
       </c>
@@ -8865,7 +8922,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
         <v>573</v>
       </c>
@@ -8876,7 +8933,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A576" s="3" t="s">
         <v>574</v>
       </c>
@@ -8887,7 +8944,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
         <v>575</v>
       </c>
@@ -8898,7 +8955,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
         <v>576</v>
       </c>
@@ -8909,7 +8966,7 @@
         <v>668601001</v>
       </c>
     </row>
-    <row r="579" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
         <v>577</v>
       </c>
@@ -8920,7 +8977,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
         <v>578</v>
       </c>
@@ -8931,7 +8988,7 @@
         <v>20201001</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
         <v>579</v>
       </c>
@@ -8942,7 +8999,7 @@
         <v>27703001</v>
       </c>
     </row>
-    <row r="582" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
         <v>580</v>
       </c>
@@ -8953,7 +9010,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="583" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
         <v>581</v>
       </c>
@@ -8964,7 +9021,7 @@
         <v>231501001</v>
       </c>
     </row>
-    <row r="584" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
         <v>582</v>
       </c>
@@ -8975,7 +9032,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
         <v>583</v>
       </c>
@@ -8986,7 +9043,7 @@
         <v>26201001</v>
       </c>
     </row>
-    <row r="586" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
         <v>584</v>
       </c>
@@ -8997,7 +9054,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
         <v>585</v>
       </c>
@@ -9008,7 +9065,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="588" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
         <v>586</v>
       </c>
@@ -9019,7 +9076,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
         <v>587</v>
       </c>
@@ -9030,7 +9087,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="590" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A590" s="3" t="s">
         <v>588</v>
       </c>
@@ -9041,7 +9098,7 @@
         <v>560901001</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
         <v>589</v>
       </c>
@@ -9052,7 +9109,7 @@
         <v>26201001</v>
       </c>
     </row>
-    <row r="592" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="s">
         <v>590</v>
       </c>
@@ -9063,7 +9120,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
         <v>591</v>
       </c>
@@ -9074,7 +9131,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="594" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
         <v>592</v>
       </c>
@@ -9085,7 +9142,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="595" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
         <v>593</v>
       </c>
@@ -9096,7 +9153,7 @@
         <v>166101001</v>
       </c>
     </row>
-    <row r="596" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A596" s="3" t="s">
         <v>594</v>
       </c>
@@ -9107,7 +9164,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="597" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
         <v>595</v>
       </c>
@@ -9118,7 +9175,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="598" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A598" s="3" t="s">
         <v>595</v>
       </c>
@@ -9129,7 +9186,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="599" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
         <v>596</v>
       </c>
@@ -9140,7 +9197,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
         <v>597</v>
       </c>
@@ -9151,7 +9208,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="601" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
         <v>598</v>
       </c>
@@ -9162,7 +9219,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="602" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
         <v>599</v>
       </c>
@@ -9173,7 +9230,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
         <v>600</v>
       </c>
@@ -9184,7 +9241,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="604" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A604" s="3" t="s">
         <v>601</v>
       </c>
@@ -9195,7 +9252,7 @@
         <v>561001001</v>
       </c>
     </row>
-    <row r="605" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
         <v>602</v>
       </c>
@@ -9206,7 +9263,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A606" s="3" t="s">
         <v>603</v>
       </c>
@@ -9217,7 +9274,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="607" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>604</v>
       </c>
@@ -9228,7 +9285,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="608" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
         <v>605</v>
       </c>
@@ -9239,7 +9296,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
         <v>606</v>
       </c>
@@ -9250,7 +9307,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A610" s="3" t="s">
         <v>607</v>
       </c>
@@ -9261,7 +9318,7 @@
         <v>663301001</v>
       </c>
     </row>
-    <row r="611" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
         <v>608</v>
       </c>
@@ -9272,7 +9329,7 @@
         <v>663301001</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A612" s="3" t="s">
         <v>609</v>
       </c>
@@ -9283,7 +9340,7 @@
         <v>502901001</v>
       </c>
     </row>
-    <row r="613" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
         <v>610</v>
       </c>
@@ -9294,7 +9351,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="614" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A614" s="3" t="s">
         <v>611</v>
       </c>
@@ -9305,7 +9362,7 @@
         <v>20201001</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
         <v>612</v>
       </c>
@@ -9316,7 +9373,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="616" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A616" s="3" t="s">
         <v>613</v>
       </c>
@@ -9327,7 +9384,7 @@
         <v>771801001</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
         <v>614</v>
       </c>
@@ -9338,7 +9395,7 @@
         <v>27445004</v>
       </c>
     </row>
-    <row r="618" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
         <v>615</v>
       </c>
@@ -9349,7 +9406,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="619" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
         <v>616</v>
       </c>
@@ -9360,7 +9417,7 @@
         <v>672701001</v>
       </c>
     </row>
-    <row r="620" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A620" s="3" t="s">
         <v>617</v>
       </c>
@@ -9371,7 +9428,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="621" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
         <v>618</v>
       </c>
@@ -9382,7 +9439,7 @@
         <v>165001001</v>
       </c>
     </row>
-    <row r="622" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A622" s="3" t="s">
         <v>619</v>
       </c>
@@ -9393,7 +9450,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="623" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
         <v>620</v>
       </c>
@@ -9404,7 +9461,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="624" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A624" s="3" t="s">
         <v>621</v>
       </c>
@@ -9415,7 +9472,7 @@
         <v>505001001</v>
       </c>
     </row>
-    <row r="625" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
         <v>622</v>
       </c>
@@ -9426,7 +9483,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="626" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A626" s="3" t="s">
         <v>623</v>
       </c>
@@ -9437,7 +9494,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="627" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
         <v>624</v>
       </c>
@@ -9448,7 +9505,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="628" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A628" s="3" t="s">
         <v>625</v>
       </c>
@@ -9459,7 +9516,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="629" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
         <v>626</v>
       </c>
@@ -9470,7 +9527,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="630" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A630" s="3" t="s">
         <v>627</v>
       </c>
@@ -9481,7 +9538,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="631" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
         <v>628</v>
       </c>
@@ -9492,7 +9549,7 @@
         <v>771401001</v>
       </c>
     </row>
-    <row r="632" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A632" s="3" t="s">
         <v>629</v>
       </c>
@@ -9503,7 +9560,7 @@
         <v>22401001</v>
       </c>
     </row>
-    <row r="633" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A633" s="3" t="s">
         <v>630</v>
       </c>
@@ -9514,7 +9571,7 @@
         <v>631801001</v>
       </c>
     </row>
-    <row r="634" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A634" s="3" t="s">
         <v>631</v>
       </c>
@@ -9525,7 +9582,7 @@
         <v>762701001</v>
       </c>
     </row>
-    <row r="635" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A635" s="3" t="s">
         <v>632</v>
       </c>
@@ -9536,7 +9593,7 @@
         <v>24201001</v>
       </c>
     </row>
-    <row r="636" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A636" s="3" t="s">
         <v>633</v>
       </c>
@@ -9547,7 +9604,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="637" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A637" s="3" t="s">
         <v>634</v>
       </c>
@@ -9558,7 +9615,7 @@
         <v>667001001</v>
       </c>
     </row>
-    <row r="638" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A638" s="3" t="s">
         <v>635</v>
       </c>
@@ -9569,7 +9626,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="639" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A639" s="3" t="s">
         <v>636</v>
       </c>
@@ -9580,7 +9637,7 @@
         <v>312301001</v>
       </c>
     </row>
-    <row r="640" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A640" s="3" t="s">
         <v>637</v>
       </c>
@@ -9591,7 +9648,7 @@
         <v>27201001</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A641" s="3" t="s">
         <v>638</v>
       </c>
@@ -9602,7 +9659,7 @@
         <v>633001001</v>
       </c>
     </row>
-    <row r="642" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A642" s="3" t="s">
         <v>639</v>
       </c>
@@ -9613,7 +9670,7 @@
         <v>782001001</v>
       </c>
     </row>
-    <row r="643" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A643" s="3" t="s">
         <v>640</v>
       </c>
@@ -9624,7 +9681,7 @@
         <v>27645006</v>
       </c>
     </row>
-    <row r="644" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
         <v>641</v>
       </c>
@@ -9635,7 +9692,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="645" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
         <v>642</v>
       </c>
@@ -9646,7 +9703,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="646" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
         <v>643</v>
       </c>
@@ -9657,7 +9714,7 @@
         <v>631701001</v>
       </c>
     </row>
-    <row r="647" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
         <v>644</v>
       </c>
@@ -9668,7 +9725,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
         <v>645</v>
       </c>
@@ -9679,7 +9736,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="649" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
         <v>646</v>
       </c>
@@ -9688,7 +9745,7 @@
       </c>
       <c r="C649" s="11"/>
     </row>
-    <row r="650" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A650" s="3" t="s">
         <v>647</v>
       </c>
@@ -9697,7 +9754,7 @@
       </c>
       <c r="C650" s="11"/>
     </row>
-    <row r="651" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
         <v>648</v>
       </c>
@@ -9708,7 +9765,7 @@
         <v>770401001</v>
       </c>
     </row>
-    <row r="652" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A652" s="3" t="s">
         <v>649</v>
       </c>
@@ -9719,7 +9776,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="653" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A653" s="3" t="s">
         <v>650</v>
       </c>
@@ -9730,16 +9787,16 @@
         <v>27305809</v>
       </c>
     </row>
-    <row r="654" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A654" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="B654" s="9">
-        <v>744712683609</v>
+      <c r="B654" s="9" t="s">
+        <v>767</v>
       </c>
       <c r="C654" s="11"/>
     </row>
-    <row r="655" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
         <v>652</v>
       </c>
@@ -9750,7 +9807,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="656" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A656" s="3" t="s">
         <v>653</v>
       </c>
@@ -9761,7 +9818,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="657" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A657" s="3" t="s">
         <v>654</v>
       </c>
@@ -9772,7 +9829,7 @@
         <v>27743001</v>
       </c>
     </row>
-    <row r="658" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A658" s="3" t="s">
         <v>655</v>
       </c>
@@ -9783,7 +9840,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="659" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
         <v>656</v>
       </c>
@@ -9794,7 +9851,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="660" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
         <v>657</v>
       </c>
@@ -9805,7 +9862,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="661" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A661" s="3" t="s">
         <v>658</v>
       </c>
@@ -9816,7 +9873,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="662" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A662" s="3" t="s">
         <v>659</v>
       </c>
@@ -9827,7 +9884,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="663" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A663" s="3" t="s">
         <v>660</v>
       </c>
@@ -9838,7 +9895,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="664" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A664" s="3" t="s">
         <v>661</v>
       </c>
@@ -9847,7 +9904,7 @@
       </c>
       <c r="C664" s="11"/>
     </row>
-    <row r="665" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A665" s="3" t="s">
         <v>662</v>
       </c>
@@ -9858,7 +9915,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="666" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A666" s="3" t="s">
         <v>663</v>
       </c>
@@ -9869,7 +9926,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="667" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A667" s="3" t="s">
         <v>664</v>
       </c>
@@ -9878,7 +9935,7 @@
       </c>
       <c r="C667" s="11"/>
     </row>
-    <row r="668" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A668" s="3" t="s">
         <v>665</v>
       </c>
@@ -9889,7 +9946,7 @@
         <v>668601001</v>
       </c>
     </row>
-    <row r="669" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A669" s="3" t="s">
         <v>666</v>
       </c>
@@ -9900,16 +9957,16 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="670" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A670" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="B670" s="9">
-        <v>740402520773</v>
+      <c r="B670" s="9" t="s">
+        <v>758</v>
       </c>
       <c r="C670" s="11"/>
     </row>
-    <row r="671" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A671" s="3" t="s">
         <v>668</v>
       </c>
@@ -9920,7 +9977,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="672" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A672" s="3" t="s">
         <v>669</v>
       </c>
@@ -9931,7 +9988,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="673" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A673" s="3" t="s">
         <v>670</v>
       </c>
@@ -9942,7 +9999,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="674" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A674" s="3" t="s">
         <v>671</v>
       </c>
@@ -9953,7 +10010,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="675" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A675" s="3" t="s">
         <v>672</v>
       </c>
@@ -9964,7 +10021,7 @@
         <v>22901001</v>
       </c>
     </row>
-    <row r="676" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A676" s="3" t="s">
         <v>673</v>
       </c>
@@ -9975,7 +10032,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="677" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A677" s="3" t="s">
         <v>674</v>
       </c>
@@ -9986,7 +10043,7 @@
         <v>27743004</v>
       </c>
     </row>
-    <row r="678" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A678" s="3" t="s">
         <v>675</v>
       </c>
@@ -9995,7 +10052,7 @@
       </c>
       <c r="C678" s="11"/>
     </row>
-    <row r="679" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A679" s="3" t="s">
         <v>676</v>
       </c>
@@ -10006,7 +10063,7 @@
         <v>25250001</v>
       </c>
     </row>
-    <row r="680" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A680" s="3" t="s">
         <v>677</v>
       </c>
@@ -10017,7 +10074,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="681" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A681" s="3" t="s">
         <v>678</v>
       </c>
@@ -10028,7 +10085,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="682" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A682" s="3" t="s">
         <v>679</v>
       </c>
@@ -10039,7 +10096,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="683" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A683" s="3" t="s">
         <v>680</v>
       </c>
@@ -10050,7 +10107,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="684" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A684" s="3" t="s">
         <v>681</v>
       </c>
@@ -10061,7 +10118,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="685" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A685" s="3" t="s">
         <v>682</v>
       </c>
@@ -10072,7 +10129,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="686" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A686" s="3" t="s">
         <v>683</v>
       </c>
@@ -10083,7 +10140,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A687" s="3" t="s">
         <v>684</v>
       </c>
@@ -10094,7 +10151,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="688" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A688" s="3" t="s">
         <v>685</v>
       </c>
@@ -10105,7 +10162,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="689" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A689" s="3" t="s">
         <v>686</v>
       </c>
@@ -10116,7 +10173,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A690" s="3" t="s">
         <v>687</v>
       </c>
@@ -10127,7 +10184,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="691" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A691" s="3" t="s">
         <v>688</v>
       </c>
@@ -10138,7 +10195,7 @@
         <v>27802001</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A692" s="3" t="s">
         <v>689</v>
       </c>
@@ -10149,7 +10206,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="693" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A693" s="3" t="s">
         <v>690</v>
       </c>
@@ -10160,7 +10217,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="694" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A694" s="3" t="s">
         <v>691</v>
       </c>
@@ -10171,7 +10228,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="695" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A695" s="3" t="s">
         <v>692</v>
       </c>
@@ -10182,7 +10239,7 @@
         <v>23732002</v>
       </c>
     </row>
-    <row r="696" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A696" s="3" t="s">
         <v>693</v>
       </c>
@@ -10193,7 +10250,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="697" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A697" s="3" t="s">
         <v>694</v>
       </c>
@@ -10204,7 +10261,7 @@
         <v>27443001</v>
       </c>
     </row>
-    <row r="698" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A698" s="3" t="s">
         <v>695</v>
       </c>
@@ -10215,7 +10272,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="699" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A699" s="3" t="s">
         <v>696</v>
       </c>
@@ -10226,7 +10283,7 @@
         <v>26201001</v>
       </c>
     </row>
-    <row r="700" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A700" s="3" t="s">
         <v>697</v>
       </c>
@@ -10237,7 +10294,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="701" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A701" s="3" t="s">
         <v>698</v>
       </c>
@@ -10248,7 +10305,7 @@
         <v>770301001</v>
       </c>
     </row>
-    <row r="702" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A702" s="3" t="s">
         <v>699</v>
       </c>
@@ -10259,7 +10316,7 @@
         <v>631801001</v>
       </c>
     </row>
-    <row r="703" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A703" s="3" t="s">
         <v>700</v>
       </c>
@@ -10268,7 +10325,7 @@
       </c>
       <c r="C703" s="11"/>
     </row>
-    <row r="704" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A704" s="3" t="s">
         <v>701</v>
       </c>
@@ -10279,7 +10336,7 @@
         <v>631543002</v>
       </c>
     </row>
-    <row r="705" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A705" s="3" t="s">
         <v>702</v>
       </c>
@@ -10290,7 +10347,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="706" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A706" s="3" t="s">
         <v>703</v>
       </c>
@@ -10301,7 +10358,7 @@
         <v>772601001</v>
       </c>
     </row>
-    <row r="707" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A707" s="3" t="s">
         <v>704</v>
       </c>
@@ -10312,7 +10369,7 @@
         <v>24501001</v>
       </c>
     </row>
-    <row r="708" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A708" s="3" t="s">
         <v>705</v>
       </c>
@@ -10323,7 +10380,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="709" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A709" s="3" t="s">
         <v>706</v>
       </c>
@@ -10334,7 +10391,7 @@
         <v>590301001</v>
       </c>
     </row>
-    <row r="710" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A710" s="3" t="s">
         <v>707</v>
       </c>
@@ -10345,7 +10402,7 @@
         <v>27643001</v>
       </c>
     </row>
-    <row r="711" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A711" s="3" t="s">
         <v>708</v>
       </c>
@@ -10356,7 +10413,7 @@
         <v>503801001</v>
       </c>
     </row>
-    <row r="712" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A712" s="3" t="s">
         <v>709</v>
       </c>
@@ -10367,7 +10424,7 @@
         <v>26801001</v>
       </c>
     </row>
-    <row r="713" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A713" s="3" t="s">
         <v>710</v>
       </c>
@@ -10378,7 +10435,7 @@
         <v>668401001</v>
       </c>
     </row>
-    <row r="714" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A714" s="3" t="s">
         <v>711</v>
       </c>
@@ -10389,7 +10446,7 @@
         <v>770701001</v>
       </c>
     </row>
-    <row r="715" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A715" s="3" t="s">
         <v>712</v>
       </c>
@@ -10400,7 +10457,7 @@
         <v>997750001</v>
       </c>
     </row>
-    <row r="716" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A716" s="3" t="s">
         <v>713</v>
       </c>
@@ -10411,7 +10468,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="717" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A717" s="3" t="s">
         <v>714</v>
       </c>
@@ -10422,7 +10479,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A718" s="3" t="s">
         <v>715</v>
       </c>
@@ -10433,7 +10490,7 @@
         <v>25801001</v>
       </c>
     </row>
-    <row r="719" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A719" s="3" t="s">
         <v>716</v>
       </c>
@@ -10444,7 +10501,7 @@
         <v>503401001</v>
       </c>
     </row>
-    <row r="720" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A720" s="3" t="s">
         <v>717</v>
       </c>
@@ -10453,7 +10510,7 @@
       </c>
       <c r="C720" s="11"/>
     </row>
-    <row r="721" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A721" s="3" t="s">
         <v>718</v>
       </c>
@@ -10464,7 +10521,7 @@
         <v>526001001</v>
       </c>
     </row>
-    <row r="722" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A722" s="3" t="s">
         <v>719</v>
       </c>
@@ -10475,7 +10532,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="723" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A723" s="3" t="s">
         <v>720</v>
       </c>
@@ -10486,7 +10543,7 @@
         <v>502901001</v>
       </c>
     </row>
-    <row r="724" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A724" s="3" t="s">
         <v>721</v>
       </c>
@@ -10497,7 +10554,7 @@
         <v>771501001</v>
       </c>
     </row>
-    <row r="725" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A725" s="3" t="s">
         <v>722</v>
       </c>
@@ -10508,7 +10565,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="726" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A726" s="3" t="s">
         <v>723</v>
       </c>
@@ -10519,7 +10576,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="727" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A727" s="3" t="s">
         <v>724</v>
       </c>
@@ -10530,7 +10587,7 @@
         <v>27801001</v>
       </c>
     </row>
-    <row r="728" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A728" s="3" t="s">
         <v>725</v>
       </c>
@@ -10541,16 +10598,16 @@
         <v>770201001</v>
       </c>
     </row>
-    <row r="729" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A729" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="B729" s="9">
-        <v>740414960909</v>
+      <c r="B729" s="9" t="s">
+        <v>757</v>
       </c>
       <c r="C729" s="11"/>
     </row>
-    <row r="730" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A730" s="3" t="s">
         <v>727</v>
       </c>
@@ -10561,7 +10618,7 @@
         <v>25101001</v>
       </c>
     </row>
-    <row r="731" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A731" s="3" t="s">
         <v>728</v>
       </c>
@@ -10572,7 +10629,7 @@
         <v>774950001</v>
       </c>
     </row>
-    <row r="732" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A732" s="3" t="s">
         <v>729</v>
       </c>
@@ -10583,7 +10640,7 @@
         <v>695201001</v>
       </c>
     </row>
-    <row r="733" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A733" s="3" t="s">
         <v>730</v>
       </c>
@@ -10594,7 +10651,7 @@
         <v>25901001</v>
       </c>
     </row>
-    <row r="734" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A734" s="3" t="s">
         <v>731</v>
       </c>
@@ -10605,7 +10662,7 @@
         <v>27401001</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A735" s="3" t="s">
         <v>732</v>
       </c>
@@ -10616,7 +10673,7 @@
         <v>27501001</v>
       </c>
     </row>
-    <row r="736" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A736" s="3" t="s">
         <v>733</v>
       </c>
@@ -10625,7 +10682,7 @@
       </c>
       <c r="C736" s="11"/>
     </row>
-    <row r="737" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A737" s="3" t="s">
         <v>734</v>
       </c>
@@ -10636,7 +10693,7 @@
         <v>370201001</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A738" s="3" t="s">
         <v>735</v>
       </c>
@@ -10647,7 +10704,7 @@
         <v>26401001</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A739" s="3" t="s">
         <v>736</v>
       </c>
@@ -10658,7 +10715,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A740" s="3" t="s">
         <v>737</v>
       </c>
@@ -10669,7 +10726,7 @@
         <v>780401001</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A741" s="3" t="s">
         <v>738</v>
       </c>
@@ -10678,7 +10735,7 @@
       </c>
       <c r="C741" s="11"/>
     </row>
-    <row r="742" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A742" s="3" t="s">
         <v>739</v>
       </c>
@@ -10689,7 +10746,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A743" s="3" t="s">
         <v>740</v>
       </c>
@@ -10700,7 +10757,7 @@
         <v>183201001</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A744" s="3" t="s">
         <v>741</v>
       </c>
@@ -10711,7 +10768,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A745" s="3" t="s">
         <v>742</v>
       </c>
@@ -10722,7 +10779,7 @@
         <v>27632001</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A746" s="3" t="s">
         <v>743</v>
       </c>
@@ -10733,7 +10790,7 @@
         <v>27601001</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A747" s="3" t="s">
         <v>744</v>
       </c>
@@ -10744,7 +10801,7 @@
         <v>997650001</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A748" s="3" t="s">
         <v>745</v>
       </c>
@@ -10755,7 +10812,7 @@
         <v>502701001</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A749" s="3" t="s">
         <v>746</v>
       </c>
@@ -10766,7 +10823,7 @@
         <v>27345001</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A750" s="3" t="s">
         <v>747</v>
       </c>
@@ -10777,7 +10834,7 @@
         <v>165501001</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A751" s="3" t="s">
         <v>748</v>
       </c>
@@ -10788,7 +10845,7 @@
         <v>27701001</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A752" s="3" t="s">
         <v>749</v>
       </c>
@@ -10799,7 +10856,7 @@
         <v>27301001</v>
       </c>
     </row>
-    <row r="753" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A753" s="3" t="s">
         <v>750</v>
       </c>
@@ -10810,7 +10867,7 @@
         <v>997750001</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A754" s="4" t="s">
         <v>751</v>
       </c>
